--- a/Documentation/useraccounts.xlsx
+++ b/Documentation/useraccounts.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Miguel Escalona\Github\CCAPDEV-MCO\Official\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Miguel Escalona\Github\CCAPDEV-MCO\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE63C267-9F86-4BDF-A293-CB8B829C8A28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A492E21C-04F9-4E36-873A-7EED2B1B4FB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4200" yWindow="2505" windowWidth="15375" windowHeight="8325" xr2:uid="{F7E6A104-FD53-4E92-847D-425BDD8CB485}"/>
+    <workbookView xWindow="11925" yWindow="3330" windowWidth="15375" windowHeight="8325" xr2:uid="{F7E6A104-FD53-4E92-847D-425BDD8CB485}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>dlsu</t>
   </si>
@@ -67,19 +67,10 @@
     <t>kaigainiki</t>
   </si>
   <si>
-    <t>userId</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9QoOG2nLvY</t>
-  </si>
-  <si>
-    <t>xzDDAjlDOZ</t>
-  </si>
-  <si>
-    <t>y983WAJRJx</t>
-  </si>
-  <si>
-    <t>7YWgnMK3aY</t>
+    <t>kronii_ouro</t>
+  </si>
+  <si>
+    <t>ily_kronies</t>
   </si>
 </sst>
 </file>
@@ -135,12 +126,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CC00325F-C93C-4077-80AD-A70201E922BA}" name="Table1" displayName="Table1" ref="A1:C1048576" totalsRowShown="0">
-  <autoFilter ref="A1:C1048576" xr:uid="{CC00325F-C93C-4077-80AD-A70201E922BA}"/>
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CC00325F-C93C-4077-80AD-A70201E922BA}" name="Table1" displayName="Table1" ref="A1:B1048576" totalsRowShown="0">
+  <autoFilter ref="A1:B1048576" xr:uid="{CC00325F-C93C-4077-80AD-A70201E922BA}"/>
+  <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{6ACEBD78-30F0-44D7-B319-77F6D845F23D}" name="Username"/>
     <tableColumn id="2" xr3:uid="{34DF10B3-6518-40B1-B731-4C2AC03445F4}" name="Password"/>
-    <tableColumn id="3" xr3:uid="{82D769B6-E22F-484E-B51B-C29519F665B8}" name="userId"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -443,72 +433,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA3F6EAF-75F9-4427-99ED-B37828324F6C}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
-        <v>14</v>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
